--- a/src/notebooks/Здания для кластеризации 2.xlsx
+++ b/src/notebooks/Здания для кластеризации 2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C389"/>
+  <dimension ref="A1:C287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,24 +453,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1001146420</t>
+          <t>1001232969</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200000</v>
+        <v>801470.9675</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1001333318</t>
+          <t>1001334880</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>280192.52</v>
+        <v>2904975.34</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -479,37 +479,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>102002711630</t>
+          <t>110110067712</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>786656.66</v>
+        <v>3080915.755</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>141701766795</t>
+          <t>1101159127</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102224.5</v>
+        <v>132459.55</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2100009963</t>
+          <t>1435361389</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277000</v>
+        <v>395341.39</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -518,11 +518,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>211301376106</t>
+          <t>165118595909</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>968446.4</v>
+        <v>35000</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -531,11 +531,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2312224779</t>
+          <t>183236617788</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60000</v>
+        <v>920628</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -544,50 +544,50 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>233012683520</t>
+          <t>210403215410</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>108000</v>
+        <v>1549607.704</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>235200270142</t>
+          <t>211301376106</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2209376.415</v>
+        <v>1305611.383333334</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2462211810</t>
+          <t>220403394846</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1856813.47</v>
+        <v>1373344.83625</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2723164170</t>
+          <t>231129218970</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>247289.32</v>
+        <v>1732893.99</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -596,76 +596,76 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>290120575797</t>
+          <t>233203365769</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>311200.49</v>
+        <v>360038.0533333333</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>290121798806</t>
+          <t>235200270142</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2162931.6</v>
+        <v>2070854.92</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2901253089</t>
+          <t>246413003196</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>622500</v>
+        <v>390000</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2901297551</t>
+          <t>246900316697</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1827209.73</v>
+        <v>87012.36733333333</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>290410993267</t>
+          <t>253615242832</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1921500</v>
+        <v>2617688.228</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>298302846615</t>
+          <t>253910852666</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>332066.99</v>
+        <v>193865.32</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -674,11 +674,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3257052535</t>
+          <t>261006075150</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48442.9</v>
+        <v>40455.75</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -687,11 +687,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>350201076955</t>
+          <t>262303581087</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>960891.36</v>
+        <v>1523616.25</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -700,11 +700,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>352501717515</t>
+          <t>262311492666</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>673077.5</v>
+        <v>1150992</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -713,24 +713,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3525177028</t>
+          <t>262409797390</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>740610.88</v>
+        <v>338150</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3661179553</t>
+          <t>2723164170</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>59416.66</v>
+        <v>1443823.28</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -739,11 +739,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3904608655</t>
+          <t>290406219660</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>24127680.68</v>
+        <v>2965865.03</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -752,24 +752,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>391104402960</t>
+          <t>290410993267</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>814121</v>
+        <v>185894.74</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3917505777</t>
+          <t>332401105629</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42096</v>
+        <v>677190.85</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -778,24 +778,24 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>434593053826</t>
+          <t>3507312010</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>45976654</v>
+        <v>1680158.98</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4700000010</t>
+          <t>3525372188</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>550000</v>
+        <v>179897.94</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -804,11 +804,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>470102461782</t>
+          <t>380807146825</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>973055.7</v>
+        <v>987985.4399999999</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -817,11 +817,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>470312347370</t>
+          <t>3903007027</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32053.61</v>
+        <v>43200</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -830,11 +830,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>470379535836</t>
+          <t>390508629813</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>989391.8</v>
+        <v>677415.55</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -843,24 +843,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4712024270</t>
+          <t>390521708020</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>694000</v>
+        <v>659522</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>471403742203</t>
+          <t>3906978718</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>749994.8</v>
+        <v>918865.95</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -869,11 +869,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4715012509</t>
+          <t>3921799819</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>262025.64</v>
+        <v>562793.46</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
@@ -882,11 +882,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4716046483</t>
+          <t>420207172680</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>240000</v>
+        <v>985543.23</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -895,63 +895,63 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>472002951667</t>
+          <t>4205232271</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>93280.44500000001</v>
+        <v>227852.71</v>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4725481764</t>
+          <t>420591423002</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1955396.45</v>
+        <v>655449.595</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4726005180</t>
+          <t>434584109230</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>766184.28</v>
+        <v>246083.93</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5034042777</t>
+          <t>470102461782</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5300</v>
+        <v>651603.715</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>510304391109</t>
+          <t>470311207540</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>384965</v>
+        <v>2755152.05</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -960,50 +960,50 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>510502597253</t>
+          <t>470315074308</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1280087</v>
+        <v>614013.64</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5190009495</t>
+          <t>4703181407</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1665421.88</v>
+        <v>1623522.593333333</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5190083629</t>
+          <t>470319260471</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18934.09</v>
+        <v>260400</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5190917190</t>
+          <t>470408995693</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>175488.66</v>
+        <v>623764.5600000001</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -1012,50 +1012,50 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5321133379</t>
+          <t>470413152480</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>974758.15</v>
+        <v>1717990.745</v>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5321203410</t>
+          <t>470420508699</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1950000</v>
+        <v>1236701.4</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5321801523</t>
+          <t>4705086928</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>30627.6</v>
+        <v>2051778.175</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>550505019739</t>
+          <t>470512759893</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>649379.75</v>
+        <v>338148.17</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
@@ -1064,11 +1064,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6027194749</t>
+          <t>4706036736</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1606896.64</v>
+        <v>2266965.11</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -1077,11 +1077,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>616712091918</t>
+          <t>4706051100</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1719719.48</v>
+        <v>849989.55</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -1090,37 +1090,37 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>631202435918</t>
+          <t>4706056250</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4518372.36</v>
+        <v>587333.33</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>636200108061</t>
+          <t>4708001129</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1518389.065</v>
+        <v>117066.3</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>650803058133</t>
+          <t>470901054448</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>396100</v>
+        <v>195000</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1129,11 +1129,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>723013860748</t>
+          <t>471006185683</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>17494400</v>
+        <v>14684.92</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -1142,37 +1142,37 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>7704497092</t>
+          <t>471301482394</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>9386795</v>
+        <v>425304.7385714286</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7707049388</t>
+          <t>471505636998</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>94269460.25</v>
+        <v>1702153.41</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>7715617958</t>
+          <t>471513551628</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>78316129.04000001</v>
+        <v>2350383.5</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1181,37 +1181,37 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>7729502379</t>
+          <t>471605109219</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>157680</v>
+        <v>8635517.125</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7731483613</t>
+          <t>4825123297</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>40195.65</v>
+        <v>1131095.46</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>773606277578</t>
+          <t>5003144465</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>990000</v>
+        <v>146911.61</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1220,24 +1220,24 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>780100540680</t>
+          <t>501210683800</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>26000</v>
+        <v>342362.87</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>780105186264</t>
+          <t>501811808122</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>179549.5</v>
+        <v>698963.75</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1246,50 +1246,50 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7801101638</t>
+          <t>5047195001</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>677509.825</v>
+        <v>1900170</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7801289813</t>
+          <t>510205289880</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>281531.25</v>
+        <v>313661.0733333333</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>7801296070</t>
+          <t>511004427902</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>312589.3</v>
+        <v>263974.715</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7801322027</t>
+          <t>5190054297</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>832499.99</v>
+        <v>560000</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1298,24 +1298,24 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7801330959</t>
+          <t>5190054579</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>67390.75999999999</v>
+        <v>3028856.68</v>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>7801353265</t>
+          <t>5321077477</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>77322600.01000001</v>
+        <v>640697.1899999999</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -1324,50 +1324,50 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7801465635</t>
+          <t>5321133379</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>650508.24</v>
+        <v>1743648.868</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7801472590</t>
+          <t>5321169632</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>623554.8178571428</v>
+        <v>2549562.76</v>
       </c>
       <c r="C70" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>7801486272</t>
+          <t>5321182760</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>277767.0502</v>
+        <v>2410801.725</v>
       </c>
       <c r="C71" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7801512652</t>
+          <t>5904406934</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>268304.7</v>
+        <v>1310280</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1376,11 +1376,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7801528589</t>
+          <t>5905998088</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>126728.8</v>
+        <v>2194631.25</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -1389,37 +1389,37 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7801598804</t>
+          <t>591806546253</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>161665</v>
+        <v>80972.78333333334</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>780161110727</t>
+          <t>6150099832</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>64493.82</v>
+        <v>250700.225</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7801613259</t>
+          <t>6163138165</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>895439.92</v>
+        <v>1027364.85</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -1428,11 +1428,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7801614213</t>
+          <t>616712091918</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>498806.28</v>
+        <v>3173857.32</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1441,11 +1441,11 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7801619490</t>
+          <t>631202435918</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1880077.5</v>
+        <v>252190.55</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -1454,63 +1454,63 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7801709360</t>
+          <t>6316264441</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>29409553.75</v>
+        <v>977264.9199999999</v>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7802048200</t>
+          <t>6445011199</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>504064</v>
+        <v>3045759.4275</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7802278797</t>
+          <t>6623137639</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>178614.42</v>
+        <v>410655.39</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7802423282</t>
+          <t>662518170377</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>173053.47</v>
+        <v>45600</v>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7802425152</t>
+          <t>665209071864</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>70876002.48</v>
+        <v>36320683.85</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1519,24 +1519,24 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7802433636</t>
+          <t>6658531562</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1902739.831666667</v>
+        <v>1812992.692</v>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>780245145331</t>
+          <t>666500184778</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>65000</v>
+        <v>451523.75</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
@@ -1545,11 +1545,11 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7802470211</t>
+          <t>693203457144</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>149916.91</v>
+        <v>339264.9</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -1558,11 +1558,11 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>7802604384</t>
+          <t>70704770307</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>208950.05</v>
+        <v>33580</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -1571,11 +1571,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>7802687013</t>
+          <t>723013860748</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>63875</v>
+        <v>579377.61</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
@@ -1584,24 +1584,24 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>7802738910</t>
+          <t>723013865256</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4246777.355</v>
+        <v>1772835.92</v>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>7802747103</t>
+          <t>745308549943</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>109452.48</v>
+        <v>45000</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -1610,37 +1610,37 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>7802770198</t>
+          <t>7704497092</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>814660.094375</v>
+        <v>3929680</v>
       </c>
       <c r="C91" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>7802884903</t>
+          <t>7719424019</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>16610000</v>
+        <v>2585600.9</v>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>7802897010</t>
+          <t>7720795339</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>4759997.58</v>
+        <v>7497453.81</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -1649,24 +1649,24 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>7802931984</t>
+          <t>772092052229</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>38206.42</v>
+        <v>458784.715</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>7802945419</t>
+          <t>7725390978</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>28405</v>
+        <v>251410.48</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -1675,24 +1675,24 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>7804276650</t>
+          <t>772774274560</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>984966.42</v>
+        <v>13062557.03428571</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>7804389453</t>
+          <t>7751174518</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>286677.6</v>
+        <v>999417.1</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -1701,89 +1701,89 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>7804391903</t>
+          <t>780100140971</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>741034.2</v>
+        <v>177838.99</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>7804407134</t>
+          <t>7801322027</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>36595.72</v>
+        <v>434980.905</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>7804453571</t>
+          <t>7801471533</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>146644.565</v>
+        <v>2343103</v>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>7804455145</t>
+          <t>7801531045</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>84587277.88499999</v>
+        <v>25067504.12</v>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>7804474797</t>
+          <t>7801572362</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>7118200</v>
+        <v>9917000</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>7804485492</t>
+          <t>7801613259</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>600266.64</v>
+        <v>733390.675</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>7804521158</t>
+          <t>780208422058</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>14459.16</v>
+        <v>40976.47</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -1792,24 +1792,24 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>7804534728</t>
+          <t>780210206008</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>6190887.095</v>
+        <v>37844.27</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>7804560421</t>
+          <t>780212417290</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>389345.11</v>
+        <v>38000</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -1818,37 +1818,37 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>7804585345</t>
+          <t>7802232680</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>9851225.140000001</v>
+        <v>66648.82000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>7804592776</t>
+          <t>780229997875</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>247141.68</v>
+        <v>368487.41</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>7804592938</t>
+          <t>7802395187</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>11550000</v>
+        <v>8851.719999999999</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
@@ -1857,76 +1857,76 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>7804598746</t>
+          <t>780243429722</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1631754.56</v>
+        <v>2267666.665</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>7804605200</t>
+          <t>7802529666</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2592120.875</v>
+        <v>8462160</v>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>7804641254</t>
+          <t>780253263561</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2848375.306</v>
+        <v>681955.4500000001</v>
       </c>
       <c r="C112" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>7804678913</t>
+          <t>7802551686</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>131977.915</v>
+        <v>7683072</v>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>7804684794</t>
+          <t>7802642439</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>213359.72</v>
+        <v>5965170.825454545</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>780539370900</t>
+          <t>7802691570</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>169999</v>
+        <v>461379.42</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
@@ -1935,76 +1935,76 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>7805458533</t>
+          <t>7802739790</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>203355.4716666667</v>
+        <v>1005540.13</v>
       </c>
       <c r="C116" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>7805516344</t>
+          <t>7802813010</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1971676.88</v>
+        <v>6276162.52</v>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>7805557291</t>
+          <t>7802879205</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>4453881</v>
+        <v>961464.785</v>
       </c>
       <c r="C118" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>7805676683</t>
+          <t>7802880987</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4264000</v>
+        <v>6192697.271428571</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>7805708222</t>
+          <t>7802882046</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>3381680</v>
+        <v>1291642.84</v>
       </c>
       <c r="C120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>7805755550</t>
+          <t>7802886121</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2453999</v>
+        <v>1047600</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -2013,11 +2013,11 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>7805800860</t>
+          <t>7802886788</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>19597050</v>
+        <v>6964926.68</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -2026,24 +2026,24 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>7805807079</t>
+          <t>7802890086</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>307275.2175</v>
+        <v>4107971.298333333</v>
       </c>
       <c r="C123" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>780600108528</t>
+          <t>7802945419</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1960000</v>
+        <v>117012</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -2052,11 +2052,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>7806033614</t>
+          <t>7804288590</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>61792.2</v>
+        <v>785015.91</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -2065,24 +2065,24 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>7806047416</t>
+          <t>780432659954</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>639299.9399999999</v>
+        <v>582453.3833333333</v>
       </c>
       <c r="C126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>7806080318</t>
+          <t>780435568670</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>40071021.4</v>
+        <v>80000</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -2091,11 +2091,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>7806175834</t>
+          <t>780438635477</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>136425.65</v>
+        <v>350000</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -2104,76 +2104,76 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>780618443608</t>
+          <t>780440420782</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>3198850.96</v>
+        <v>741074.0862500001</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>7806224760</t>
+          <t>7804412751</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>543029.24</v>
+        <v>1642736.7025</v>
       </c>
       <c r="C130" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>7806232095</t>
+          <t>7804571720</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>38299998.28</v>
+        <v>2497875.723333333</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>7806264555</t>
+          <t>7804571864</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>28792.42</v>
+        <v>2573887.3235</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>7806272267</t>
+          <t>7804574270</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>36750161.2975</v>
+        <v>1417980.134</v>
       </c>
       <c r="C133" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>780629948103</t>
+          <t>7804575869</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>248949</v>
+        <v>12147629.07</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
@@ -2182,24 +2182,24 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>780635143114</t>
+          <t>7804585345</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>517506.88</v>
+        <v>859925</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>7806377774</t>
+          <t>7804593868</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>310715.88</v>
+        <v>12811630.39</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
@@ -2208,258 +2208,258 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>7806386539</t>
+          <t>7804597809</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>39879.27</v>
+        <v>3360356.996666667</v>
       </c>
       <c r="C137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>7806386867</t>
+          <t>7804605200</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>99400.77</v>
+        <v>1388844.915</v>
       </c>
       <c r="C138" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>7806387476</t>
+          <t>7804608747</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>230352.585</v>
+        <v>5021536.816666666</v>
       </c>
       <c r="C139" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>7806389515</t>
+          <t>7804641254</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>52355.52</v>
+        <v>2599067.936</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>7806438762</t>
+          <t>7804661780</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>48450000</v>
+        <v>2414118.437777778</v>
       </c>
       <c r="C141" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>7806491149</t>
+          <t>7804703895</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>97868.06</v>
+        <v>1089665.321111111</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>7806496789</t>
+          <t>780524093475</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>26798334.97</v>
+        <v>313443.294</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>7806500393</t>
+          <t>7805342779</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>568080</v>
+        <v>258654.7857142857</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>7806603818</t>
+          <t>780539791313</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>38139.42</v>
+        <v>977321.8524444444</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>7806614136</t>
+          <t>7805472859</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>9010751.57</v>
+        <v>143250</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>7807049663</t>
+          <t>7805697997</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>239484.93</v>
+        <v>371137.06</v>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>780705263714</t>
+          <t>7805756850</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>338004.4416666667</v>
+        <v>196851.21</v>
       </c>
       <c r="C148" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>7807096670</t>
+          <t>7806080318</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>891321.8624999999</v>
+        <v>6111680.4</v>
       </c>
       <c r="C149" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>7807213433</t>
+          <t>780609445493</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>5002680.665</v>
+        <v>14347.6</v>
       </c>
       <c r="C150" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>780722619248</t>
+          <t>780617366799</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>153000</v>
+        <v>2493254.6875</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>7807318820</t>
+          <t>780618443608</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>129972.96</v>
+        <v>1722014.0025</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>7807329808</t>
+          <t>780621105172</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>113085.39</v>
+        <v>419926.79</v>
       </c>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>7807335047</t>
+          <t>780622739774</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>127019.16</v>
+        <v>879361.5549999999</v>
       </c>
       <c r="C154" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>7807335262</t>
+          <t>7806229215</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>184812.42</v>
+        <v>687219.1899999999</v>
       </c>
       <c r="C155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>7810091320</t>
+          <t>7806233780</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>529661.38</v>
+        <v>1591996.28</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -2468,24 +2468,24 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>7810104530</t>
+          <t>780625358872</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2513518.015</v>
+        <v>170000</v>
       </c>
       <c r="C157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>7810123780</t>
+          <t>7806260769</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1562489.18</v>
+        <v>204065.56</v>
       </c>
       <c r="C158" t="n">
         <v>2</v>
@@ -2494,102 +2494,102 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>781015567179</t>
+          <t>7806272267</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>3187464</v>
+        <v>13243936.11375</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>781020405945</t>
+          <t>780629948103</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1762314.688</v>
+        <v>244352.55</v>
       </c>
       <c r="C160" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>7810333392</t>
+          <t>780632558826</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>20039.76</v>
+        <v>1713428.275</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>7810334484</t>
+          <t>780635143114</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1450000</v>
+        <v>677000</v>
       </c>
       <c r="C162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>7810336001</t>
+          <t>7806375840</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>321027.6</v>
+        <v>2101096.0225</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>7810410456</t>
+          <t>7806386867</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>695700</v>
+        <v>36038.88</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>7810416930</t>
+          <t>7806398076</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>409237.23</v>
+        <v>885703.3825000001</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>7810430974</t>
+          <t>7806496789</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>4908000</v>
+        <v>1853683.9</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
@@ -2598,50 +2598,50 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>7810455979</t>
+          <t>7806507110</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>37318426.5</v>
+        <v>7434484.42</v>
       </c>
       <c r="C167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>7810465631</t>
+          <t>7806522781</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>3104573.696</v>
+        <v>340993.02</v>
       </c>
       <c r="C168" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>7810515297</t>
+          <t>7806538767</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>749411.8966666666</v>
+        <v>21620276.02</v>
       </c>
       <c r="C169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>7810523435</t>
+          <t>7806557946</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1239217.68</v>
+        <v>1623092.55</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
@@ -2650,11 +2650,11 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>7810570643</t>
+          <t>7806595290</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>461774.88</v>
+        <v>516500</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
@@ -2663,89 +2663,89 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>7810625927</t>
+          <t>7806614111</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1415198.49</v>
+        <v>389610.0675</v>
       </c>
       <c r="C172" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>7810720948</t>
+          <t>7806621831</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1332064.036</v>
+        <v>1462949.98</v>
       </c>
       <c r="C173" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>7810741232</t>
+          <t>780723237548</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2182296.14</v>
+        <v>62311.075</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>7810765219</t>
+          <t>781000066155</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>5683252.885</v>
+        <v>122719.93</v>
       </c>
       <c r="C175" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>7810776980</t>
+          <t>7810010730</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>56126</v>
+        <v>24949925.72666667</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>7810812275</t>
+          <t>7810013071</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>214400.04</v>
+        <v>14963261.25</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>7810831768</t>
+          <t>781020170108</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>70000</v>
+        <v>480000</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
@@ -2754,24 +2754,24 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>7810854564</t>
+          <t>781020405945</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>53592.12</v>
+        <v>1024753.7</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>7810875324</t>
+          <t>7810239840</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>491081.35</v>
+        <v>195660.24</v>
       </c>
       <c r="C180" t="n">
         <v>1</v>
@@ -2780,24 +2780,24 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>7810898716</t>
+          <t>7810410456</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>10561610</v>
+        <v>1109739.705714286</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>7810905882</t>
+          <t>7810455979</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>9891000</v>
+        <v>10000000</v>
       </c>
       <c r="C182" t="n">
         <v>1</v>
@@ -2806,50 +2806,50 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>7811021124</t>
+          <t>7810465631</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>408338.82</v>
+        <v>2022689.715</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>7811079251</t>
+          <t>7810580384</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>258837.48</v>
+        <v>5938190.165</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>7811079396</t>
+          <t>7810741232</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>5228756.505</v>
+        <v>3649570.343333333</v>
       </c>
       <c r="C185" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>781125451392</t>
+          <t>7810837128</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>100326.31</v>
+        <v>32333.33</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -2858,167 +2858,167 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>781129398492</t>
+          <t>7810904631</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>242207.0033333333</v>
+        <v>1352616.742777778</v>
       </c>
       <c r="C187" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>7811313159</t>
+          <t>7810931321</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>17231.7</v>
+        <v>3487636.198</v>
       </c>
       <c r="C188" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>7811331172</t>
+          <t>781100649200</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>21313.62</v>
+        <v>1942531.296666667</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>7811334279</t>
+          <t>7811210330</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>153009.33</v>
+        <v>17161387.1875</v>
       </c>
       <c r="C190" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>7811341244</t>
+          <t>7811236916</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>7470.6</v>
+        <v>1357237.2</v>
       </c>
       <c r="C191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>7811405931</t>
+          <t>7811342103</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>624121.48</v>
+        <v>11896554.485</v>
       </c>
       <c r="C192" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>7811405949</t>
+          <t>781140760596</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>979217.885</v>
+        <v>320574.555</v>
       </c>
       <c r="C193" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>7811488977</t>
+          <t>781149509362</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>38687.64</v>
+        <v>737880.41</v>
       </c>
       <c r="C194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>7811503382</t>
+          <t>7811548471</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>544074.96</v>
+        <v>27342591.796</v>
       </c>
       <c r="C195" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>7811536109</t>
+          <t>7811558617</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>769924.8869911504</v>
+        <v>4131102.144166667</v>
       </c>
       <c r="C196" t="n">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>7811558617</t>
+          <t>7811588322</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>15379158.35333333</v>
+        <v>243514.14</v>
       </c>
       <c r="C197" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>7811564716</t>
+          <t>7811602665</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>3358875</v>
+        <v>7770475.59</v>
       </c>
       <c r="C198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>7811580958</t>
+          <t>7811627853</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>267437.56</v>
+        <v>447849</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -3027,27 +3027,27 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>7811685189</t>
+          <t>7811668747</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2587000.04</v>
+        <v>1927048.498571429</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>7811710773</t>
+          <t>7811693951</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>455693.75</v>
+        <v>787807.8666666667</v>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -3057,33 +3057,33 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>17028137.01</v>
+        <v>5834594.096249999</v>
       </c>
       <c r="C202" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>7811744483</t>
+          <t>7811746346</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1602720</v>
+        <v>3169041.022222222</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>7811755830</t>
+          <t>7811773766</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>9787.620000000001</v>
+        <v>255435.71</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -3092,37 +3092,37 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>7811759176</t>
+          <t>7813230042</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>840264.7859090909</v>
+        <v>73966.58714285714</v>
       </c>
       <c r="C205" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>7812010171</t>
+          <t>7813258400</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>9813856.050000001</v>
+        <v>1043999.3</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>7812017145</t>
+          <t>7813344610</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>9149197.92</v>
+        <v>120206.76</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -3131,11 +3131,11 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>781300134409</t>
+          <t>7813461868</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2816196</v>
+        <v>14950</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -3144,24 +3144,24 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>781313061684</t>
+          <t>7813537901</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>439082.1558620689</v>
+        <v>3260621.8</v>
       </c>
       <c r="C209" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>7813275822</t>
+          <t>7813649274</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>34651.95</v>
+        <v>7999999.98</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -3170,11 +3170,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>7813295730</t>
+          <t>781403079541</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>62643732.91</v>
+        <v>412863.2</v>
       </c>
       <c r="C211" t="n">
         <v>2</v>
@@ -3183,11 +3183,11 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>7813344610</t>
+          <t>7814050620</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>120206.76</v>
+        <v>9849546.27</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
@@ -3196,24 +3196,24 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>7813417393</t>
+          <t>7814071652</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>93281.28</v>
+        <v>2006454.775</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>7813417837</t>
+          <t>781407879193</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>140768</v>
+        <v>1159038</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -3222,167 +3222,167 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>7813419263</t>
+          <t>7814102420</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>276036.64</v>
+        <v>1211209.27</v>
       </c>
       <c r="C215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>7813537901</t>
+          <t>781415901903</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>658516.5033333333</v>
+        <v>1277409.35</v>
       </c>
       <c r="C216" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>7813668206</t>
+          <t>781419397701</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>184131.7817647059</v>
+        <v>528956.58</v>
       </c>
       <c r="C217" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>7814013379</t>
+          <t>781430570290</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>7812000</v>
+        <v>3715767.476666667</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>7814134479</t>
+          <t>781431195645</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>110573.38</v>
+        <v>1778442.573333333</v>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>781421149199</t>
+          <t>781432318480</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>2977165.96</v>
+        <v>197200</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>781426579156</t>
+          <t>781434150804</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>555401.7440000001</v>
+        <v>60574</v>
       </c>
       <c r="C221" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>781427410674</t>
+          <t>781439827952</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>92086.45</v>
+        <v>852386.3266666667</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>781430570290</t>
+          <t>7814432612</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>2227549.95</v>
+        <v>276469.6171428572</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>7814327047</t>
+          <t>7814459117</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>3722821.535</v>
+        <v>261216.05</v>
       </c>
       <c r="C224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>781433101057</t>
+          <t>7814669523</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>36248.04</v>
+        <v>11971879.18</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>7814379550</t>
+          <t>7814718308</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>275534.4933333333</v>
+        <v>1828187.405</v>
       </c>
       <c r="C226" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>7814409740</t>
+          <t>7814735215</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>217037.52</v>
+        <v>455036.98</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -3391,24 +3391,24 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>7814414349</t>
+          <t>7814761487</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>188766.9933333333</v>
+        <v>2292631.944</v>
       </c>
       <c r="C228" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>7814432612</t>
+          <t>7814765805</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>409027.16</v>
+        <v>907699.1</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
@@ -3417,24 +3417,24 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>7814482451</t>
+          <t>7814767760</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1249999</v>
+        <v>5336700.006666666</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>7814564707</t>
+          <t>7814813671</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>14453097.99</v>
+        <v>3412363.77</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -3443,102 +3443,102 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>7814579326</t>
+          <t>781609338084</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>120847.455</v>
+        <v>7806</v>
       </c>
       <c r="C232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>7814704489</t>
+          <t>781615848534</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>8409731.615</v>
+        <v>896034</v>
       </c>
       <c r="C233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>7814708564</t>
+          <t>781617676312</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>10947022.95</v>
+        <v>397013.75</v>
       </c>
       <c r="C234" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>7814720988</t>
+          <t>781622387901</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>319978.1</v>
+        <v>204471.325</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>7814733673</t>
+          <t>7816274834</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>217201.92</v>
+        <v>13019455.80333333</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>7814753790</t>
+          <t>7816583085</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>55052.24</v>
+        <v>2626608.672</v>
       </c>
       <c r="C237" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>7816085851</t>
+          <t>7816658911</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>124164.4075</v>
+        <v>2965359.25</v>
       </c>
       <c r="C238" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>781609603688</t>
+          <t>7816720895</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>6974700</v>
+        <v>5100000</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -3547,11 +3547,11 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>781615848534</t>
+          <t>781698851930</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>7110000</v>
+        <v>2027538.22</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
@@ -3560,11 +3560,11 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>781622387901</t>
+          <t>781713662760</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>200000</v>
+        <v>99302.87</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -3573,24 +3573,24 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>7816268206</t>
+          <t>781904485343</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>508025.519</v>
+        <v>15600</v>
       </c>
       <c r="C242" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>7816341135</t>
+          <t>781911921304</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>87499.56</v>
+        <v>456765.7</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -3599,37 +3599,37 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>7816342509</t>
+          <t>781912386811</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>3068803.36</v>
+        <v>1882756.168333333</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>7816363890</t>
+          <t>7820017903</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>238594.015</v>
+        <v>2796570.08</v>
       </c>
       <c r="C245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>7816377318</t>
+          <t>7820052873</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>189691.92</v>
+        <v>23248772.8</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
@@ -3638,24 +3638,24 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>7816388542</t>
+          <t>7820057913</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>31774.26</v>
+        <v>2171630.25</v>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>7816442648</t>
+          <t>7820070738</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>355947.025</v>
+        <v>442156.95</v>
       </c>
       <c r="C248" t="n">
         <v>2</v>
@@ -3664,11 +3664,11 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>7816445737</t>
+          <t>7820073351</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>157567.1066666667</v>
+        <v>11027353.76333333</v>
       </c>
       <c r="C249" t="n">
         <v>3</v>
@@ -3677,11 +3677,11 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>7816514525</t>
+          <t>7820079804</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>49293.38</v>
+        <v>32333.33</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -3690,24 +3690,24 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>7816578409</t>
+          <t>782020565732</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>27132000</v>
+        <v>7570504.125</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>7816653590</t>
+          <t>7820303220</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>4649479.38</v>
+        <v>139890</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3716,76 +3716,76 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>7816727925</t>
+          <t>782031876507</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>77507.81999999999</v>
+        <v>1332212.32375</v>
       </c>
       <c r="C253" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>7816734680</t>
+          <t>782065653700</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>98967.12</v>
+        <v>1501291.874444445</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>781700762077</t>
+          <t>782095264500</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>420208.36</v>
+        <v>2141303.16</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>7817067855</t>
+          <t>782508343756</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>296400</v>
+        <v>422608.1075</v>
       </c>
       <c r="C256" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>7817069644</t>
+          <t>782511488448</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>512111.64</v>
+        <v>496166.14625</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>7817102348</t>
+          <t>7825474861</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>259930.4</v>
+        <v>1158915</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3794,24 +3794,24 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>7817313613</t>
+          <t>7838037259</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>275436.24</v>
+        <v>1107043.024</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>781802839184</t>
+          <t>7838305684</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>4884860.91</v>
+        <v>1123143.75</v>
       </c>
       <c r="C260" t="n">
         <v>1</v>
@@ -3820,11 +3820,11 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>781912386811</t>
+          <t>7838495481</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>2087978.64</v>
+        <v>964000</v>
       </c>
       <c r="C261" t="n">
         <v>1</v>
@@ -3833,24 +3833,24 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>7819309098</t>
+          <t>783904934602</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>68882.10000000001</v>
+        <v>167154.22</v>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>782006100020</t>
+          <t>7839504097</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>26000</v>
+        <v>2485000</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -3859,24 +3859,24 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>782020565732</t>
+          <t>7840098160</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>9305373.390000001</v>
+        <v>2031969.937391304</v>
       </c>
       <c r="C264" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>7820315138</t>
+          <t>7840409634</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>97181.68000000001</v>
+        <v>2705691.705</v>
       </c>
       <c r="C265" t="n">
         <v>4</v>
@@ -3885,11 +3885,11 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>7820315402</t>
+          <t>7840474560</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>369087.82</v>
+        <v>6383973.35</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
@@ -3898,63 +3898,63 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>7820315963</t>
+          <t>7840481630</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>164469.54</v>
+        <v>1947024.6375</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>782065171209</t>
+          <t>7840492431</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>227599.8325</v>
+        <v>1243471.357142857</v>
       </c>
       <c r="C268" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>7825129760</t>
+          <t>7840503651</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>148503.52</v>
+        <v>6978440.55125</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>7825409887</t>
+          <t>7841021851</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>33378.18</v>
+        <v>3332254.135714286</v>
       </c>
       <c r="C270" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>7825417743</t>
+          <t>7841028007</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>5155576.87</v>
+        <v>8974.98</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3963,24 +3963,24 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>7825474861</t>
+          <t>7841028134</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>2676517.95</v>
+        <v>606273.2999999999</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>7825666563</t>
+          <t>7841038213</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>790285.6899999999</v>
+        <v>1645600</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
@@ -3989,50 +3989,50 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>782701528787</t>
+          <t>7841432932</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>2333272.44</v>
+        <v>67443982.62</v>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>782701880702</t>
+          <t>7842023467</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1457000</v>
+        <v>13811147.364</v>
       </c>
       <c r="C275" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>7838034177</t>
+          <t>7842140724</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>130756.3754545455</v>
+        <v>15069558.85</v>
       </c>
       <c r="C276" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>7838078826</t>
+          <t>7842213718</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>72046.97</v>
+        <v>220186.5</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -4041,89 +4041,89 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>7838086993</t>
+          <t>7842459510</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>37622406.75</v>
+        <v>20813162.058</v>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>7838108340</t>
+          <t>7842491507</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>2300000</v>
+        <v>1573471.022</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>7838315932</t>
+          <t>784290115382</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>321719.82</v>
+        <v>30762.94</v>
       </c>
       <c r="C280" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>7838346634</t>
+          <t>784810507621</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>804814.98</v>
+        <v>2311550.655</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>7838365179</t>
+          <t>790108432330</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>57472146</v>
+        <v>849691.1899999999</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>7838407446</t>
+          <t>8610006030</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>265448.47</v>
+        <v>1323614.807058824</v>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>7838410142</t>
+          <t>910802239549</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>3888507.02</v>
+        <v>197132.305</v>
       </c>
       <c r="C284" t="n">
         <v>2</v>
@@ -4132,11 +4132,11 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>7838464966</t>
+          <t>9701160986</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>10102640.4</v>
+        <v>2022904.75</v>
       </c>
       <c r="C285" t="n">
         <v>1</v>
@@ -4145,1352 +4145,26 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>7838465335</t>
+          <t>9717091512</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>4990000</v>
+        <v>5473516.12</v>
       </c>
       <c r="C286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>7838496615</t>
+          <t>9721148666</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1661453.7025</v>
+        <v>1180000</v>
       </c>
       <c r="C287" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>783904934602</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>155750</v>
-      </c>
-      <c r="C288" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>7839073813</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
-        <v>55030.88</v>
-      </c>
-      <c r="C289" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>7839113311</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>1542500</v>
-      </c>
-      <c r="C290" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>7839122764</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
-        <v>575106.6977777778</v>
-      </c>
-      <c r="C291" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>7839128195</t>
-        </is>
-      </c>
-      <c r="B292" t="n">
-        <v>112101.3702439024</v>
-      </c>
-      <c r="C292" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>7839393330</t>
-        </is>
-      </c>
-      <c r="B293" t="n">
-        <v>100296</v>
-      </c>
-      <c r="C293" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>7839426699</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>158852995.49</v>
-      </c>
-      <c r="C294" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>7839484193</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
-        <v>109090</v>
-      </c>
-      <c r="C295" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>7839504097</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>12410138.42</v>
-      </c>
-      <c r="C296" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>7840017740</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>561839.87</v>
-      </c>
-      <c r="C297" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>7840017877</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>164909.66</v>
-      </c>
-      <c r="C298" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>7840035555</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>91329.71000000001</v>
-      </c>
-      <c r="C299" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>7840066377</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>226546.23</v>
-      </c>
-      <c r="C300" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>7840084753</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>79436.88</v>
-      </c>
-      <c r="C301" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>7840087401</t>
-        </is>
-      </c>
-      <c r="B302" t="n">
-        <v>543975.08</v>
-      </c>
-      <c r="C302" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>7840087962</t>
-        </is>
-      </c>
-      <c r="B303" t="n">
-        <v>155470.32</v>
-      </c>
-      <c r="C303" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>7840090972</t>
-        </is>
-      </c>
-      <c r="B304" t="n">
-        <v>1160152.641428571</v>
-      </c>
-      <c r="C304" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>7840095000</t>
-        </is>
-      </c>
-      <c r="B305" t="n">
-        <v>223697.3575</v>
-      </c>
-      <c r="C305" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>7840098160</t>
-        </is>
-      </c>
-      <c r="B306" t="n">
-        <v>1851701.685</v>
-      </c>
-      <c r="C306" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>7840100109</t>
-        </is>
-      </c>
-      <c r="B307" t="n">
-        <v>16430.48</v>
-      </c>
-      <c r="C307" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>7840100780</t>
-        </is>
-      </c>
-      <c r="B308" t="n">
-        <v>6678.72</v>
-      </c>
-      <c r="C308" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>7840101374</t>
-        </is>
-      </c>
-      <c r="B309" t="n">
-        <v>11794.2</v>
-      </c>
-      <c r="C309" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>7840103050</t>
-        </is>
-      </c>
-      <c r="B310" t="n">
-        <v>30520.6</v>
-      </c>
-      <c r="C310" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>7840319726</t>
-        </is>
-      </c>
-      <c r="B311" t="n">
-        <v>6193.44</v>
-      </c>
-      <c r="C311" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>7840330180</t>
-        </is>
-      </c>
-      <c r="B312" t="n">
-        <v>5916.18</v>
-      </c>
-      <c r="C312" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>7840330670</t>
-        </is>
-      </c>
-      <c r="B313" t="n">
-        <v>647507.88</v>
-      </c>
-      <c r="C313" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>7840331459</t>
-        </is>
-      </c>
-      <c r="B314" t="n">
-        <v>159672.43</v>
-      </c>
-      <c r="C314" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>7840335534</t>
-        </is>
-      </c>
-      <c r="B315" t="n">
-        <v>18742.26</v>
-      </c>
-      <c r="C315" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>7840336915</t>
-        </is>
-      </c>
-      <c r="B316" t="n">
-        <v>77569.02</v>
-      </c>
-      <c r="C316" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>7840340206</t>
-        </is>
-      </c>
-      <c r="B317" t="n">
-        <v>11329.15</v>
-      </c>
-      <c r="C317" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>7840343447</t>
-        </is>
-      </c>
-      <c r="B318" t="n">
-        <v>102952.11</v>
-      </c>
-      <c r="C318" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>7840343567</t>
-        </is>
-      </c>
-      <c r="B319" t="n">
-        <v>21229.2</v>
-      </c>
-      <c r="C319" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>7840378672</t>
-        </is>
-      </c>
-      <c r="B320" t="n">
-        <v>13077.12</v>
-      </c>
-      <c r="C320" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>7840379669</t>
-        </is>
-      </c>
-      <c r="B321" t="n">
-        <v>123795.48</v>
-      </c>
-      <c r="C321" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>7840381139</t>
-        </is>
-      </c>
-      <c r="B322" t="n">
-        <v>39094.15</v>
-      </c>
-      <c r="C322" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>7840384965</t>
-        </is>
-      </c>
-      <c r="B323" t="n">
-        <v>19008.12</v>
-      </c>
-      <c r="C323" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>7840389346</t>
-        </is>
-      </c>
-      <c r="B324" t="n">
-        <v>1884587.592222222</v>
-      </c>
-      <c r="C324" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>7840409634</t>
-        </is>
-      </c>
-      <c r="B325" t="n">
-        <v>2890000</v>
-      </c>
-      <c r="C325" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>7840430178</t>
-        </is>
-      </c>
-      <c r="B326" t="n">
-        <v>3157236.41</v>
-      </c>
-      <c r="C326" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>7840456017</t>
-        </is>
-      </c>
-      <c r="B327" t="n">
-        <v>977860.48</v>
-      </c>
-      <c r="C327" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>7840481630</t>
-        </is>
-      </c>
-      <c r="B328" t="n">
-        <v>2990000</v>
-      </c>
-      <c r="C328" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>7840503651</t>
-        </is>
-      </c>
-      <c r="B329" t="n">
-        <v>11198419</v>
-      </c>
-      <c r="C329" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>7841002633</t>
-        </is>
-      </c>
-      <c r="B330" t="n">
-        <v>1018616.8</v>
-      </c>
-      <c r="C330" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>7841015713</t>
-        </is>
-      </c>
-      <c r="B331" t="n">
-        <v>360418.13</v>
-      </c>
-      <c r="C331" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>7841015784</t>
-        </is>
-      </c>
-      <c r="B332" t="n">
-        <v>116524.44</v>
-      </c>
-      <c r="C332" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>7841073497</t>
-        </is>
-      </c>
-      <c r="B333" t="n">
-        <v>135255.63</v>
-      </c>
-      <c r="C333" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>7841091841</t>
-        </is>
-      </c>
-      <c r="B334" t="n">
-        <v>76626.62</v>
-      </c>
-      <c r="C334" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>7841301626</t>
-        </is>
-      </c>
-      <c r="B335" t="n">
-        <v>37215.36</v>
-      </c>
-      <c r="C335" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>7841310204</t>
-        </is>
-      </c>
-      <c r="B336" t="n">
-        <v>214882.44</v>
-      </c>
-      <c r="C336" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>7841310500</t>
-        </is>
-      </c>
-      <c r="B337" t="n">
-        <v>172520.27</v>
-      </c>
-      <c r="C337" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>7841312071</t>
-        </is>
-      </c>
-      <c r="B338" t="n">
-        <v>220015.24</v>
-      </c>
-      <c r="C338" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>7841319084</t>
-        </is>
-      </c>
-      <c r="B339" t="n">
-        <v>17587.62</v>
-      </c>
-      <c r="C339" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>7841322249</t>
-        </is>
-      </c>
-      <c r="B340" t="n">
-        <v>1290800</v>
-      </c>
-      <c r="C340" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>7841325497</t>
-        </is>
-      </c>
-      <c r="B341" t="n">
-        <v>62705.4</v>
-      </c>
-      <c r="C341" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>7841331490</t>
-        </is>
-      </c>
-      <c r="B342" t="n">
-        <v>120329.47</v>
-      </c>
-      <c r="C342" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>7841332590</t>
-        </is>
-      </c>
-      <c r="B343" t="n">
-        <v>55002.12</v>
-      </c>
-      <c r="C343" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>7841337887</t>
-        </is>
-      </c>
-      <c r="B344" t="n">
-        <v>22569</v>
-      </c>
-      <c r="C344" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>7841378393</t>
-        </is>
-      </c>
-      <c r="B345" t="n">
-        <v>33695.4</v>
-      </c>
-      <c r="C345" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>7841378450</t>
-        </is>
-      </c>
-      <c r="B346" t="n">
-        <v>11909.34</v>
-      </c>
-      <c r="C346" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>7841384710</t>
-        </is>
-      </c>
-      <c r="B347" t="n">
-        <v>1693106.272222222</v>
-      </c>
-      <c r="C347" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>7841404477</t>
-        </is>
-      </c>
-      <c r="B348" t="n">
-        <v>756492.72</v>
-      </c>
-      <c r="C348" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>7841447079</t>
-        </is>
-      </c>
-      <c r="B349" t="n">
-        <v>115404.52</v>
-      </c>
-      <c r="C349" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>7841495033</t>
-        </is>
-      </c>
-      <c r="B350" t="n">
-        <v>3920671.45</v>
-      </c>
-      <c r="C350" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>7842012874</t>
-        </is>
-      </c>
-      <c r="B351" t="n">
-        <v>541102.21</v>
-      </c>
-      <c r="C351" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>7842012930</t>
-        </is>
-      </c>
-      <c r="B352" t="n">
-        <v>132853.57</v>
-      </c>
-      <c r="C352" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>7842013050</t>
-        </is>
-      </c>
-      <c r="B353" t="n">
-        <v>73088.64</v>
-      </c>
-      <c r="C353" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>7842023467</t>
-        </is>
-      </c>
-      <c r="B354" t="n">
-        <v>14598927.04</v>
-      </c>
-      <c r="C354" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>7842128822</t>
-        </is>
-      </c>
-      <c r="B355" t="n">
-        <v>3161078.795555556</v>
-      </c>
-      <c r="C355" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>7842155167</t>
-        </is>
-      </c>
-      <c r="B356" t="n">
-        <v>510264.33</v>
-      </c>
-      <c r="C356" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>7842158425</t>
-        </is>
-      </c>
-      <c r="B357" t="n">
-        <v>25094.67</v>
-      </c>
-      <c r="C357" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>7842177682</t>
-        </is>
-      </c>
-      <c r="B358" t="n">
-        <v>359421.3</v>
-      </c>
-      <c r="C358" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>7842182266</t>
-        </is>
-      </c>
-      <c r="B359" t="n">
-        <v>11891165.44666667</v>
-      </c>
-      <c r="C359" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>7842186670</t>
-        </is>
-      </c>
-      <c r="B360" t="n">
-        <v>43476</v>
-      </c>
-      <c r="C360" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>7842300463</t>
-        </is>
-      </c>
-      <c r="B361" t="n">
-        <v>36630.35</v>
-      </c>
-      <c r="C361" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>7842307444</t>
-        </is>
-      </c>
-      <c r="B362" t="n">
-        <v>32374159.16</v>
-      </c>
-      <c r="C362" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>7842317629</t>
-        </is>
-      </c>
-      <c r="B363" t="n">
-        <v>111407.28</v>
-      </c>
-      <c r="C363" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>7842327401</t>
-        </is>
-      </c>
-      <c r="B364" t="n">
-        <v>21116.12</v>
-      </c>
-      <c r="C364" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>7842327793</t>
-        </is>
-      </c>
-      <c r="B365" t="n">
-        <v>45083.94</v>
-      </c>
-      <c r="C365" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>7842329053</t>
-        </is>
-      </c>
-      <c r="B366" t="n">
-        <v>23438.87</v>
-      </c>
-      <c r="C366" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>7842330323</t>
-        </is>
-      </c>
-      <c r="B367" t="n">
-        <v>125333.04</v>
-      </c>
-      <c r="C367" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>7842334705</t>
-        </is>
-      </c>
-      <c r="B368" t="n">
-        <v>44705.93</v>
-      </c>
-      <c r="C368" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>7842335931</t>
-        </is>
-      </c>
-      <c r="B369" t="n">
-        <v>688573.72</v>
-      </c>
-      <c r="C369" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>7842338386</t>
-        </is>
-      </c>
-      <c r="B370" t="n">
-        <v>22406.1</v>
-      </c>
-      <c r="C370" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>7842375860</t>
-        </is>
-      </c>
-      <c r="B371" t="n">
-        <v>271429.6</v>
-      </c>
-      <c r="C371" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>7842378011</t>
-        </is>
-      </c>
-      <c r="B372" t="n">
-        <v>8131.54</v>
-      </c>
-      <c r="C372" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>7842379791</t>
-        </is>
-      </c>
-      <c r="B373" t="n">
-        <v>305824.66</v>
-      </c>
-      <c r="C373" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>7842381494</t>
-        </is>
-      </c>
-      <c r="B374" t="n">
-        <v>216905.83</v>
-      </c>
-      <c r="C374" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>7842383572</t>
-        </is>
-      </c>
-      <c r="B375" t="n">
-        <v>274952.7</v>
-      </c>
-      <c r="C375" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>7842384079</t>
-        </is>
-      </c>
-      <c r="B376" t="n">
-        <v>158185.19</v>
-      </c>
-      <c r="C376" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>7842384671</t>
-        </is>
-      </c>
-      <c r="B377" t="n">
-        <v>1795839.181818182</v>
-      </c>
-      <c r="C377" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>7842385040</t>
-        </is>
-      </c>
-      <c r="B378" t="n">
-        <v>1503521.93</v>
-      </c>
-      <c r="C378" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>7842408379</t>
-        </is>
-      </c>
-      <c r="B379" t="n">
-        <v>86326.98</v>
-      </c>
-      <c r="C379" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>7842436785</t>
-        </is>
-      </c>
-      <c r="B380" t="n">
-        <v>171745.32</v>
-      </c>
-      <c r="C380" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>7842459126</t>
-        </is>
-      </c>
-      <c r="B381" t="n">
-        <v>747446.1875</v>
-      </c>
-      <c r="C381" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>7842509546</t>
-        </is>
-      </c>
-      <c r="B382" t="n">
-        <v>4200000</v>
-      </c>
-      <c r="C382" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>7843002251</t>
-        </is>
-      </c>
-      <c r="B383" t="n">
-        <v>4611.63</v>
-      </c>
-      <c r="C383" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>7843018815</t>
-        </is>
-      </c>
-      <c r="B384" t="n">
-        <v>220567.6961538461</v>
-      </c>
-      <c r="C384" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>7843302537</t>
-        </is>
-      </c>
-      <c r="B385" t="n">
-        <v>14000</v>
-      </c>
-      <c r="C385" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>7843307888</t>
-        </is>
-      </c>
-      <c r="B386" t="n">
-        <v>331626.57</v>
-      </c>
-      <c r="C386" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>8610006030</t>
-        </is>
-      </c>
-      <c r="B387" t="n">
-        <v>403491.916</v>
-      </c>
-      <c r="C387" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>8610031653</t>
-        </is>
-      </c>
-      <c r="B388" t="n">
-        <v>1543683.74</v>
-      </c>
-      <c r="C388" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>861708633732</t>
-        </is>
-      </c>
-      <c r="B389" t="n">
-        <v>124561.37</v>
-      </c>
-      <c r="C389" t="n">
         <v>1</v>
       </c>
     </row>
